--- a/files/data/ProductList.xlsx
+++ b/files/data/ProductList.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Σύνολο" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Κουζίνα" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Μπαρ" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ΣΥΝΟΛΟ" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ΚΟΥΖΙΝΑ" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ΜΠΑΡ" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ΕΣΤΙΑΤΟΡΙΟ" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,18 +23,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">test1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">kg</t>
   </si>
   <si>
-    <t xml:space="preserve">test2</t>
+    <t xml:space="preserve">name1</t>
   </si>
   <si>
     <t xml:space="preserve">Lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Τεμ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ρολο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">φιαλη</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unrelated</t>
   </si>
 </sst>
 </file>
@@ -131,15 +156,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -156,6 +182,38 @@
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -174,13 +232,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -192,7 +282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
